--- a/Data/Pages/dlgMotorcycleInsurance_pagProductData.xlsx
+++ b/Data/Pages/dlgMotorcycleInsurance_pagProductData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D18754-2897-4096-B147-105756DC8372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131EF24C-DAEA-4F7B-B4BC-694F1E8E3107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="33276" windowHeight="14664" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3444" yWindow="1248" windowWidth="35136" windowHeight="13680" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>id=nextselectpriceoption</t>
   </si>
   <si>
-    <t>05/01/2025</t>
-  </si>
-  <si>
     <t>3.000.000,00</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>104_MotorcycleInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>&lt;TODAY +32,+0,+0,'%m/%d/%Y'&gt;</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>915442</xdr:colOff>
+      <xdr:colOff>305842</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>22103</xdr:rowOff>
     </xdr:to>
@@ -570,13 +570,13 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" style="1" customWidth="1"/>
@@ -663,16 +663,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
